--- a/Data/DecesSemaine_QC_2010-2020_GrAge.xlsx
+++ b/Data/DecesSemaine_QC_2010-2020_GrAge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DEM_250Z\HA5_Bilan démo\300 décès\Décès hebdo\Intégration du 2020-11-27\Pour Web-Intranet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DEM_250Z\HA5_Bilan démo\300 décès\Décès hebdo\Intégration du 2021-01-22\Pour Entrepot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Données!$A$7:$C$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Graphiques!$B$1:$O$130</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Notes!$A$1:$N$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Graphiques!$A$1:$N$130</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Notes!$A$1:$N$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>Total</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Date de diffusion :</t>
   </si>
   <si>
-    <t>2010 à 2017 : Données définitives (d).</t>
-  </si>
-  <si>
     <t>Institut de la statistique du Québec, fichier des décès du Registre des événements démographiques du Québec.</t>
   </si>
   <si>
@@ -145,34 +142,10 @@
     <t>Groupe d'âge</t>
   </si>
   <si>
-    <t>Source : Institut de la statistique du Québec, fichier des décès du Registre des événements démographiques du Québec. Données extraites le 27 novembre 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note : La dernière semaine présentée (semaine CDC 45) se termine le 7 novembre 2020. </t>
-  </si>
-  <si>
     <t>Récurrence :</t>
   </si>
   <si>
-    <t>Les données de l'année 2020 sont actualisées toutes les deux semaines, si le taux de couverture de la base de données le permet.</t>
-  </si>
-  <si>
-    <t>Données extraites le 27 novembre 2020.</t>
-  </si>
-  <si>
-    <t>2018 : Données provisoires (p), corrigées pour tenir compte de la couverture du fichier. Le taux de couverture est estimé à 99 %, avant la correction.</t>
-  </si>
-  <si>
-    <t>2019 : Données provisoires (p), corrigées pour tenir compte de la couverture du fichier. Le taux de couverture estimé varie de 99 % pour les premières semaines à 96 % pour les dernières semaines, avant la correction.</t>
-  </si>
-  <si>
     <t>Nombre hebdomadaire de décès au Québec : source de données et méthodologie.</t>
-  </si>
-  <si>
-    <t>3 décembre 2020</t>
-  </si>
-  <si>
-    <t>2020 : Données provisoires (p) corrigées pour tenir compte de la couverture du fichier. Seules ces données sont révisées d’une diffusion à l’autre. Le taux de couverture estimé varie de plus de 95 % pour les premières semaines à environ 80 % pour la plus récente, avant la correction. Les données des semaines les plus récentes sont susceptibles d’être davantage révisées au moment des mises à jour et doivent être interprétées avec une plus grande prudence.</t>
   </si>
   <si>
     <r>
@@ -198,6 +171,30 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Note : La dernière semaine présentée (semaine CDC 53) se termine le 2 janvier 2021. </t>
+  </si>
+  <si>
+    <t>Source : Institut de la statistique du Québec, fichier des décès du Registre des événements démographiques du Québec. Données extraites le 22 janvier 2021.</t>
+  </si>
+  <si>
+    <t>28 janvier 2021</t>
+  </si>
+  <si>
+    <t>Données extraites le 22 janvier 2021.</t>
+  </si>
+  <si>
+    <t>Les données des semaines ultérieures au 3 octobre 2020 sont actualisées toutes les deux semaines, si le taux de couverture de la base de données le permet.</t>
+  </si>
+  <si>
+    <t>2010 à 2018 : Données définitives (d).</t>
+  </si>
+  <si>
+    <t>2019 : Données provisoires (p), corrigées pour tenir compte de la couverture du fichier. Le taux de couverture estimé varie de 99 % pour les premières semaines à 97 % pour les dernières semaines, avant la correction.</t>
+  </si>
+  <si>
+    <t>2020 : Données provisoires (p) corrigées pour tenir compte de la couverture du fichier. Le taux de couverture estimé varie de plus de 97 % pour les premières semaines à environ 80 % pour la plus récente, avant la correction. Les données des semaines ultérieures au 3 octobre 2020 sont révisées d'une diffusion à l'autre. Les données des semaines les plus récentes sont plus susceptibles d’être révisées au moment des mises à jour et doivent être interprétées avec une plus grande prudence.</t>
   </si>
 </sst>
 </file>
@@ -388,7 +385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -494,7 +491,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -529,220 +525,152 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>429338</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>113883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6"/>
+        <xdr:cNvPr id="2" name="Image 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="866775"/>
-          <a:ext cx="8220075" cy="3981450"/>
+          <a:off x="85725" y="857250"/>
+          <a:ext cx="8230313" cy="3981033"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419813</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>62830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPr id="3" name="Image 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="4867275"/>
-          <a:ext cx="8220075" cy="3981450"/>
+          <a:off x="76200" y="5229225"/>
+          <a:ext cx="8230313" cy="3987130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423242</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>113883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10"/>
+        <xdr:cNvPr id="4" name="Image 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="8867775"/>
-          <a:ext cx="8220075" cy="3981450"/>
+          <a:off x="85725" y="9572625"/>
+          <a:ext cx="8224217" cy="3981033"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>432767</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>24730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11"/>
+        <xdr:cNvPr id="5" name="Image 4"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="12868275"/>
-          <a:ext cx="8220075" cy="3981450"/>
+          <a:off x="95250" y="13906500"/>
+          <a:ext cx="8224217" cy="3987130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1038,7 +966,7 @@
   <sheetData>
     <row r="1" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1098,7 +1026,7 @@
     </row>
     <row r="2" spans="1:56" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -1158,7 +1086,7 @@
     </row>
     <row r="3" spans="1:56" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
@@ -1231,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
@@ -2799,173 +2727,173 @@
       </c>
       <c r="BD15" s="20"/>
     </row>
-    <row r="16" spans="1:56" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+    <row r="16" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>2018</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="35">
-        <v>1595</v>
-      </c>
-      <c r="E16" s="35">
-        <v>1675</v>
-      </c>
-      <c r="F16" s="35">
-        <v>1695</v>
-      </c>
-      <c r="G16" s="35">
-        <v>1610</v>
-      </c>
-      <c r="H16" s="35">
-        <v>1615</v>
-      </c>
-      <c r="I16" s="35">
+      <c r="D16" s="19">
+        <v>1606</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1687</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1698</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1618</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1620</v>
+      </c>
+      <c r="I16" s="19">
         <v>1520</v>
       </c>
-      <c r="J16" s="35">
-        <v>1520</v>
-      </c>
-      <c r="K16" s="35">
-        <v>1515</v>
-      </c>
-      <c r="L16" s="35">
-        <v>1460</v>
-      </c>
-      <c r="M16" s="35">
-        <v>1415</v>
-      </c>
-      <c r="N16" s="35">
-        <v>1335</v>
-      </c>
-      <c r="O16" s="35">
-        <v>1345</v>
-      </c>
-      <c r="P16" s="35">
+      <c r="J16" s="19">
+        <v>1526</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1522</v>
+      </c>
+      <c r="L16" s="19">
+        <v>1466</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1420</v>
+      </c>
+      <c r="N16" s="19">
+        <v>1343</v>
+      </c>
+      <c r="O16" s="19">
+        <v>1355</v>
+      </c>
+      <c r="P16" s="19">
+        <v>1349</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>1332</v>
+      </c>
+      <c r="R16" s="19">
+        <v>1346</v>
+      </c>
+      <c r="S16" s="19">
+        <v>1279</v>
+      </c>
+      <c r="T16" s="19">
+        <v>1356</v>
+      </c>
+      <c r="U16" s="19">
+        <v>1265</v>
+      </c>
+      <c r="V16" s="19">
+        <v>1310</v>
+      </c>
+      <c r="W16" s="19">
+        <v>1269</v>
+      </c>
+      <c r="X16" s="19">
+        <v>1250</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>1242</v>
+      </c>
+      <c r="Z16" s="19">
+        <v>1187</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>1190</v>
+      </c>
+      <c r="AB16" s="19">
+        <v>1173</v>
+      </c>
+      <c r="AC16" s="19">
+        <v>1142</v>
+      </c>
+      <c r="AD16" s="19">
+        <v>1361</v>
+      </c>
+      <c r="AE16" s="19">
+        <v>1207</v>
+      </c>
+      <c r="AF16" s="19">
+        <v>1135</v>
+      </c>
+      <c r="AG16" s="19">
+        <v>1160</v>
+      </c>
+      <c r="AH16" s="19">
+        <v>1228</v>
+      </c>
+      <c r="AI16" s="19">
+        <v>1161</v>
+      </c>
+      <c r="AJ16" s="19">
+        <v>1177</v>
+      </c>
+      <c r="AK16" s="19">
+        <v>1198</v>
+      </c>
+      <c r="AL16" s="19">
+        <v>1102</v>
+      </c>
+      <c r="AM16" s="19">
+        <v>1168</v>
+      </c>
+      <c r="AN16" s="19">
+        <v>1165</v>
+      </c>
+      <c r="AO16" s="19">
+        <v>1226</v>
+      </c>
+      <c r="AP16" s="19">
+        <v>1273</v>
+      </c>
+      <c r="AQ16" s="19">
+        <v>1254</v>
+      </c>
+      <c r="AR16" s="19">
+        <v>1288</v>
+      </c>
+      <c r="AS16" s="19">
+        <v>1262</v>
+      </c>
+      <c r="AT16" s="19">
+        <v>1367</v>
+      </c>
+      <c r="AU16" s="19">
+        <v>1316</v>
+      </c>
+      <c r="AV16" s="19">
+        <v>1316</v>
+      </c>
+      <c r="AW16" s="19">
+        <v>1314</v>
+      </c>
+      <c r="AX16" s="19">
+        <v>1280</v>
+      </c>
+      <c r="AY16" s="19">
+        <v>1234</v>
+      </c>
+      <c r="AZ16" s="19">
+        <v>1343</v>
+      </c>
+      <c r="BA16" s="19">
+        <v>1296</v>
+      </c>
+      <c r="BB16" s="19">
         <v>1340</v>
       </c>
-      <c r="Q16" s="35">
-        <v>1335</v>
-      </c>
-      <c r="R16" s="35">
-        <v>1340</v>
-      </c>
-      <c r="S16" s="35">
-        <v>1275</v>
-      </c>
-      <c r="T16" s="35">
-        <v>1350</v>
-      </c>
-      <c r="U16" s="35">
-        <v>1260</v>
-      </c>
-      <c r="V16" s="35">
-        <v>1310</v>
-      </c>
-      <c r="W16" s="35">
-        <v>1265</v>
-      </c>
-      <c r="X16" s="35">
-        <v>1245</v>
-      </c>
-      <c r="Y16" s="35">
-        <v>1240</v>
-      </c>
-      <c r="Z16" s="35">
-        <v>1185</v>
-      </c>
-      <c r="AA16" s="35">
-        <v>1190</v>
-      </c>
-      <c r="AB16" s="35">
-        <v>1160</v>
-      </c>
-      <c r="AC16" s="35">
-        <v>1125</v>
-      </c>
-      <c r="AD16" s="35">
-        <v>1345</v>
-      </c>
-      <c r="AE16" s="35">
-        <v>1195</v>
-      </c>
-      <c r="AF16" s="35">
-        <v>1130</v>
-      </c>
-      <c r="AG16" s="35">
-        <v>1155</v>
-      </c>
-      <c r="AH16" s="35">
-        <v>1220</v>
-      </c>
-      <c r="AI16" s="35">
-        <v>1155</v>
-      </c>
-      <c r="AJ16" s="35">
-        <v>1170</v>
-      </c>
-      <c r="AK16" s="35">
-        <v>1180</v>
-      </c>
-      <c r="AL16" s="35">
-        <v>1100</v>
-      </c>
-      <c r="AM16" s="35">
-        <v>1170</v>
-      </c>
-      <c r="AN16" s="35">
-        <v>1155</v>
-      </c>
-      <c r="AO16" s="35">
-        <v>1220</v>
-      </c>
-      <c r="AP16" s="35">
-        <v>1270</v>
-      </c>
-      <c r="AQ16" s="35">
-        <v>1250</v>
-      </c>
-      <c r="AR16" s="35">
-        <v>1285</v>
-      </c>
-      <c r="AS16" s="35">
-        <v>1255</v>
-      </c>
-      <c r="AT16" s="35">
-        <v>1355</v>
-      </c>
-      <c r="AU16" s="35">
-        <v>1305</v>
-      </c>
-      <c r="AV16" s="35">
-        <v>1310</v>
-      </c>
-      <c r="AW16" s="35">
-        <v>1305</v>
-      </c>
-      <c r="AX16" s="35">
-        <v>1280</v>
-      </c>
-      <c r="AY16" s="35">
-        <v>1220</v>
-      </c>
-      <c r="AZ16" s="35">
-        <v>1340</v>
-      </c>
-      <c r="BA16" s="35">
-        <v>1290</v>
-      </c>
-      <c r="BB16" s="35">
-        <v>1340</v>
-      </c>
-      <c r="BC16" s="35">
-        <v>1375</v>
-      </c>
-      <c r="BD16" s="36"/>
+      <c r="BC16" s="19">
+        <v>1372</v>
+      </c>
+      <c r="BD16" s="20"/>
     </row>
     <row r="17" spans="1:56" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
@@ -2978,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="35">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="E17" s="35">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="F17" s="35">
         <v>1450</v>
@@ -2990,16 +2918,16 @@
         <v>1495</v>
       </c>
       <c r="H17" s="35">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="I17" s="35">
         <v>1410</v>
       </c>
       <c r="J17" s="35">
-        <v>1435</v>
+        <v>1445</v>
       </c>
       <c r="K17" s="35">
-        <v>1325</v>
+        <v>1330</v>
       </c>
       <c r="L17" s="35">
         <v>1365</v>
@@ -3008,130 +2936,130 @@
         <v>1445</v>
       </c>
       <c r="N17" s="35">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="O17" s="35">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="P17" s="35">
+        <v>1265</v>
+      </c>
+      <c r="Q17" s="35">
         <v>1270</v>
       </c>
-      <c r="Q17" s="35">
-        <v>1275</v>
-      </c>
       <c r="R17" s="35">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="S17" s="35">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="T17" s="35">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="U17" s="35">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="V17" s="35">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="W17" s="35">
         <v>1310</v>
       </c>
       <c r="X17" s="35">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="Y17" s="35">
+        <v>1230</v>
+      </c>
+      <c r="Z17" s="35">
+        <v>1195</v>
+      </c>
+      <c r="AA17" s="35">
+        <v>1245</v>
+      </c>
+      <c r="AB17" s="35">
+        <v>1165</v>
+      </c>
+      <c r="AC17" s="35">
+        <v>1220</v>
+      </c>
+      <c r="AD17" s="35">
         <v>1235</v>
       </c>
-      <c r="Z17" s="35">
-        <v>1205</v>
-      </c>
-      <c r="AA17" s="35">
-        <v>1270</v>
-      </c>
-      <c r="AB17" s="35">
-        <v>1170</v>
-      </c>
-      <c r="AC17" s="35">
+      <c r="AE17" s="35">
         <v>1225</v>
-      </c>
-      <c r="AD17" s="35">
-        <v>1240</v>
-      </c>
-      <c r="AE17" s="35">
-        <v>1235</v>
       </c>
       <c r="AF17" s="35">
         <v>1245</v>
       </c>
       <c r="AG17" s="35">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="AH17" s="35">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="AI17" s="35">
         <v>1165</v>
       </c>
       <c r="AJ17" s="35">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="AK17" s="35">
         <v>1115</v>
       </c>
       <c r="AL17" s="35">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="AM17" s="35">
-        <v>1175</v>
+        <v>1195</v>
       </c>
       <c r="AN17" s="35">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="AO17" s="35">
         <v>1195</v>
       </c>
       <c r="AP17" s="35">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="AQ17" s="35">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="AR17" s="35">
-        <v>1270</v>
+        <v>1245</v>
       </c>
       <c r="AS17" s="35">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="AT17" s="35">
+        <v>1325</v>
+      </c>
+      <c r="AU17" s="35">
+        <v>1280</v>
+      </c>
+      <c r="AV17" s="35">
+        <v>1305</v>
+      </c>
+      <c r="AW17" s="35">
         <v>1320</v>
       </c>
-      <c r="AU17" s="35">
-        <v>1285</v>
-      </c>
-      <c r="AV17" s="35">
-        <v>1315</v>
-      </c>
-      <c r="AW17" s="35">
-        <v>1345</v>
-      </c>
       <c r="AX17" s="35">
-        <v>1340</v>
+        <v>1310</v>
       </c>
       <c r="AY17" s="35">
         <v>1300</v>
       </c>
       <c r="AZ17" s="35">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="BA17" s="35">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="BB17" s="35">
-        <v>1365</v>
+        <v>1340</v>
       </c>
       <c r="BC17" s="35">
-        <v>1430</v>
+        <v>1405</v>
       </c>
       <c r="BD17" s="36"/>
     </row>
@@ -3146,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="D18" s="38">
+        <v>1470</v>
+      </c>
+      <c r="E18" s="38">
+        <v>1500</v>
+      </c>
+      <c r="F18" s="38">
         <v>1480</v>
-      </c>
-      <c r="E18" s="38">
-        <v>1505</v>
-      </c>
-      <c r="F18" s="38">
-        <v>1470</v>
       </c>
       <c r="G18" s="38">
         <v>1505</v>
       </c>
       <c r="H18" s="38">
-        <v>1425</v>
+        <v>1440</v>
       </c>
       <c r="I18" s="38">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="J18" s="38">
         <v>1390</v>
@@ -3173,121 +3101,137 @@
         <v>1480</v>
       </c>
       <c r="M18" s="38">
-        <v>1400</v>
+        <v>1385</v>
       </c>
       <c r="N18" s="38">
-        <v>1385</v>
+        <v>1370</v>
       </c>
       <c r="O18" s="38">
         <v>1370</v>
       </c>
       <c r="P18" s="38">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="Q18" s="38">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="R18" s="38">
-        <v>1775</v>
+        <v>1760</v>
       </c>
       <c r="S18" s="38">
         <v>1855</v>
       </c>
       <c r="T18" s="38">
-        <v>2045</v>
+        <v>2015</v>
       </c>
       <c r="U18" s="38">
-        <v>2065</v>
+        <v>2055</v>
       </c>
       <c r="V18" s="38">
-        <v>1865</v>
+        <v>1880</v>
       </c>
       <c r="W18" s="38">
+        <v>1680</v>
+      </c>
+      <c r="X18" s="38">
+        <v>1605</v>
+      </c>
+      <c r="Y18" s="38">
         <v>1690</v>
-      </c>
-      <c r="X18" s="38">
-        <v>1580</v>
-      </c>
-      <c r="Y18" s="38">
-        <v>1695</v>
       </c>
       <c r="Z18" s="38">
         <v>1375</v>
       </c>
       <c r="AA18" s="38">
+        <v>1230</v>
+      </c>
+      <c r="AB18" s="38">
+        <v>1240</v>
+      </c>
+      <c r="AC18" s="38">
         <v>1225</v>
-      </c>
-      <c r="AB18" s="38">
-        <v>1210</v>
-      </c>
-      <c r="AC18" s="38">
-        <v>1220</v>
       </c>
       <c r="AD18" s="38">
         <v>1120</v>
       </c>
       <c r="AE18" s="38">
-        <v>1210</v>
+        <v>1245</v>
       </c>
       <c r="AF18" s="38">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="AG18" s="38">
         <v>1140</v>
       </c>
       <c r="AH18" s="38">
-        <v>1140</v>
+        <v>1155</v>
       </c>
       <c r="AI18" s="38">
+        <v>1225</v>
+      </c>
+      <c r="AJ18" s="38">
+        <v>1195</v>
+      </c>
+      <c r="AK18" s="38">
+        <v>1150</v>
+      </c>
+      <c r="AL18" s="38">
+        <v>1240</v>
+      </c>
+      <c r="AM18" s="38">
         <v>1205</v>
-      </c>
-      <c r="AJ18" s="38">
-        <v>1165</v>
-      </c>
-      <c r="AK18" s="38">
-        <v>1140</v>
-      </c>
-      <c r="AL18" s="38">
-        <v>1225</v>
-      </c>
-      <c r="AM18" s="38">
-        <v>1195</v>
       </c>
       <c r="AN18" s="38">
         <v>1180</v>
       </c>
       <c r="AO18" s="38">
-        <v>1250</v>
+        <v>1265</v>
       </c>
       <c r="AP18" s="38">
-        <v>1325</v>
+        <v>1335</v>
       </c>
       <c r="AQ18" s="38">
-        <v>1310</v>
+        <v>1320</v>
       </c>
       <c r="AR18" s="38">
         <v>1395</v>
       </c>
       <c r="AS18" s="38">
-        <v>1325</v>
+        <v>1305</v>
       </c>
       <c r="AT18" s="38">
-        <v>1335</v>
+        <v>1305</v>
       </c>
       <c r="AU18" s="38">
-        <v>1450</v>
+        <v>1380</v>
       </c>
       <c r="AV18" s="38">
-        <v>1500</v>
-      </c>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="38"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
+        <v>1440</v>
+      </c>
+      <c r="AW18" s="38">
+        <v>1455</v>
+      </c>
+      <c r="AX18" s="38">
+        <v>1385</v>
+      </c>
+      <c r="AY18" s="38">
+        <v>1440</v>
+      </c>
+      <c r="AZ18" s="38">
+        <v>1485</v>
+      </c>
+      <c r="BA18" s="38">
+        <v>1485</v>
+      </c>
+      <c r="BB18" s="38">
+        <v>1535</v>
+      </c>
+      <c r="BC18" s="38">
+        <v>1600</v>
+      </c>
+      <c r="BD18" s="38">
+        <v>1615</v>
+      </c>
     </row>
     <row r="19" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
@@ -3297,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="19">
         <v>861</v>
@@ -3465,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="19">
         <v>968</v>
@@ -3633,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="19">
         <v>913</v>
@@ -3801,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="19">
         <v>1252</v>
@@ -3969,7 +3913,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="19">
         <v>989</v>
@@ -4139,7 +4083,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="19">
         <v>1257</v>
@@ -4307,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="19">
         <v>895</v>
@@ -4475,7 +4419,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="19">
         <v>1137</v>
@@ -4635,173 +4579,173 @@
       </c>
       <c r="BD26" s="20"/>
     </row>
-    <row r="27" spans="1:56" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
+    <row r="27" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
         <v>2018</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="35">
-        <v>1220</v>
-      </c>
-      <c r="E27" s="35">
-        <v>1310</v>
-      </c>
-      <c r="F27" s="35">
-        <v>1300</v>
-      </c>
-      <c r="G27" s="35">
-        <v>1240</v>
-      </c>
-      <c r="H27" s="35">
-        <v>1260</v>
-      </c>
-      <c r="I27" s="35">
-        <v>1180</v>
-      </c>
-      <c r="J27" s="35">
+      <c r="B27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1221</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1311</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1303</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1245</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1261</v>
+      </c>
+      <c r="I27" s="19">
+        <v>1181</v>
+      </c>
+      <c r="J27" s="19">
         <v>1155</v>
       </c>
-      <c r="K27" s="35">
-        <v>1165</v>
-      </c>
-      <c r="L27" s="35">
-        <v>1130</v>
-      </c>
-      <c r="M27" s="35">
-        <v>1090</v>
-      </c>
-      <c r="N27" s="35">
-        <v>1005</v>
-      </c>
-      <c r="O27" s="35">
-        <v>1045</v>
-      </c>
-      <c r="P27" s="35">
-        <v>1030</v>
-      </c>
-      <c r="Q27" s="35">
-        <v>1000</v>
-      </c>
-      <c r="R27" s="35">
-        <v>1000</v>
-      </c>
-      <c r="S27" s="35">
+      <c r="K27" s="19">
+        <v>1166</v>
+      </c>
+      <c r="L27" s="19">
+        <v>1128</v>
+      </c>
+      <c r="M27" s="19">
+        <v>1089</v>
+      </c>
+      <c r="N27" s="19">
+        <v>1009</v>
+      </c>
+      <c r="O27" s="19">
+        <v>1049</v>
+      </c>
+      <c r="P27" s="19">
+        <v>1032</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>999</v>
+      </c>
+      <c r="R27" s="19">
+        <v>1003</v>
+      </c>
+      <c r="S27" s="19">
+        <v>963</v>
+      </c>
+      <c r="T27" s="19">
+        <v>1024</v>
+      </c>
+      <c r="U27" s="19">
+        <v>955</v>
+      </c>
+      <c r="V27" s="19">
+        <v>986</v>
+      </c>
+      <c r="W27" s="19">
         <v>960</v>
       </c>
-      <c r="T27" s="35">
-        <v>1025</v>
-      </c>
-      <c r="U27" s="35">
-        <v>955</v>
-      </c>
-      <c r="V27" s="35">
-        <v>980</v>
-      </c>
-      <c r="W27" s="35">
-        <v>960</v>
-      </c>
-      <c r="X27" s="35">
-        <v>915</v>
-      </c>
-      <c r="Y27" s="35">
-        <v>925</v>
-      </c>
-      <c r="Z27" s="35">
+      <c r="X27" s="19">
+        <v>913</v>
+      </c>
+      <c r="Y27" s="19">
+        <v>920</v>
+      </c>
+      <c r="Z27" s="19">
         <v>870</v>
       </c>
-      <c r="AA27" s="35">
-        <v>855</v>
-      </c>
-      <c r="AB27" s="35">
-        <v>880</v>
-      </c>
-      <c r="AC27" s="35">
-        <v>840</v>
-      </c>
-      <c r="AD27" s="35">
-        <v>970</v>
-      </c>
-      <c r="AE27" s="35">
-        <v>880</v>
-      </c>
-      <c r="AF27" s="35">
-        <v>815</v>
-      </c>
-      <c r="AG27" s="35">
-        <v>860</v>
-      </c>
-      <c r="AH27" s="35">
-        <v>900</v>
-      </c>
-      <c r="AI27" s="35">
-        <v>850</v>
-      </c>
-      <c r="AJ27" s="35">
+      <c r="AA27" s="19">
+        <v>853</v>
+      </c>
+      <c r="AB27" s="19">
+        <v>882</v>
+      </c>
+      <c r="AC27" s="19">
+        <v>844</v>
+      </c>
+      <c r="AD27" s="19">
+        <v>977</v>
+      </c>
+      <c r="AE27" s="19">
+        <v>886</v>
+      </c>
+      <c r="AF27" s="19">
+        <v>814</v>
+      </c>
+      <c r="AG27" s="19">
+        <v>865</v>
+      </c>
+      <c r="AH27" s="19">
+        <v>899</v>
+      </c>
+      <c r="AI27" s="19">
+        <v>853</v>
+      </c>
+      <c r="AJ27" s="19">
         <v>870</v>
       </c>
-      <c r="AK27" s="35">
-        <v>880</v>
-      </c>
-      <c r="AL27" s="35">
-        <v>825</v>
-      </c>
-      <c r="AM27" s="35">
-        <v>850</v>
-      </c>
-      <c r="AN27" s="35">
-        <v>860</v>
-      </c>
-      <c r="AO27" s="35">
-        <v>905</v>
-      </c>
-      <c r="AP27" s="35">
-        <v>955</v>
-      </c>
-      <c r="AQ27" s="35">
-        <v>930</v>
-      </c>
-      <c r="AR27" s="35">
-        <v>970</v>
-      </c>
-      <c r="AS27" s="35">
-        <v>955</v>
-      </c>
-      <c r="AT27" s="35">
-        <v>1045</v>
-      </c>
-      <c r="AU27" s="35">
+      <c r="AK27" s="19">
+        <v>886</v>
+      </c>
+      <c r="AL27" s="19">
+        <v>828</v>
+      </c>
+      <c r="AM27" s="19">
+        <v>848</v>
+      </c>
+      <c r="AN27" s="19">
+        <v>866</v>
+      </c>
+      <c r="AO27" s="19">
+        <v>908</v>
+      </c>
+      <c r="AP27" s="19">
+        <v>957</v>
+      </c>
+      <c r="AQ27" s="19">
+        <v>926</v>
+      </c>
+      <c r="AR27" s="19">
+        <v>971</v>
+      </c>
+      <c r="AS27" s="19">
+        <v>953</v>
+      </c>
+      <c r="AT27" s="19">
+        <v>1047</v>
+      </c>
+      <c r="AU27" s="19">
         <v>1010</v>
       </c>
-      <c r="AV27" s="35">
-        <v>1030</v>
-      </c>
-      <c r="AW27" s="35">
-        <v>995</v>
-      </c>
-      <c r="AX27" s="35">
-        <v>960</v>
-      </c>
-      <c r="AY27" s="35">
-        <v>940</v>
-      </c>
-      <c r="AZ27" s="35">
-        <v>990</v>
-      </c>
-      <c r="BA27" s="35">
-        <v>970</v>
-      </c>
-      <c r="BB27" s="35">
-        <v>1025</v>
-      </c>
-      <c r="BC27" s="35">
-        <v>1020</v>
-      </c>
-      <c r="BD27" s="36"/>
+      <c r="AV27" s="19">
+        <v>1031</v>
+      </c>
+      <c r="AW27" s="19">
+        <v>994</v>
+      </c>
+      <c r="AX27" s="19">
+        <v>956</v>
+      </c>
+      <c r="AY27" s="19">
+        <v>943</v>
+      </c>
+      <c r="AZ27" s="19">
+        <v>989</v>
+      </c>
+      <c r="BA27" s="19">
+        <v>974</v>
+      </c>
+      <c r="BB27" s="19">
+        <v>1023</v>
+      </c>
+      <c r="BC27" s="19">
+        <v>1016</v>
+      </c>
+      <c r="BD27" s="20"/>
     </row>
     <row r="28" spans="1:56" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
@@ -4811,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="35">
         <v>1125</v>
@@ -4820,19 +4764,19 @@
         <v>1110</v>
       </c>
       <c r="F28" s="35">
+        <v>1125</v>
+      </c>
+      <c r="G28" s="35">
         <v>1130</v>
       </c>
-      <c r="G28" s="35">
-        <v>1135</v>
-      </c>
       <c r="H28" s="35">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="I28" s="35">
         <v>1065</v>
       </c>
       <c r="J28" s="35">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="K28" s="35">
         <v>1030</v>
@@ -4844,13 +4788,13 @@
         <v>1105</v>
       </c>
       <c r="N28" s="35">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="O28" s="35">
         <v>1035</v>
       </c>
       <c r="P28" s="35">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="Q28" s="35">
         <v>975</v>
@@ -4859,16 +4803,16 @@
         <v>1050</v>
       </c>
       <c r="S28" s="35">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="T28" s="35">
         <v>980</v>
       </c>
       <c r="U28" s="35">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="V28" s="35">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="W28" s="35">
         <v>1010</v>
@@ -4880,28 +4824,28 @@
         <v>955</v>
       </c>
       <c r="Z28" s="35">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="AA28" s="35">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="AB28" s="35">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="AC28" s="35">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="AD28" s="35">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="AE28" s="35">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="AF28" s="35">
         <v>920</v>
       </c>
       <c r="AG28" s="35">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="AH28" s="35">
         <v>810</v>
@@ -4913,61 +4857,61 @@
         <v>850</v>
       </c>
       <c r="AK28" s="35">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="AL28" s="35">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="AM28" s="35">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="AN28" s="35">
         <v>870</v>
       </c>
       <c r="AO28" s="35">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="AP28" s="35">
         <v>955</v>
       </c>
       <c r="AQ28" s="35">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="AR28" s="35">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="AS28" s="35">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="AT28" s="35">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="AU28" s="35">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AV28" s="35">
         <v>970</v>
       </c>
       <c r="AW28" s="35">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AX28" s="35">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="AY28" s="35">
         <v>965</v>
       </c>
       <c r="AZ28" s="35">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="BA28" s="35">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="BB28" s="35">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="BC28" s="35">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="BD28" s="36"/>
     </row>
@@ -4979,67 +4923,67 @@
         <v>4</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="38">
         <v>1135</v>
       </c>
       <c r="E29" s="38">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="F29" s="38">
         <v>1135</v>
       </c>
       <c r="G29" s="38">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="H29" s="38">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="I29" s="38">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="J29" s="38">
         <v>1055</v>
       </c>
       <c r="K29" s="38">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="L29" s="38">
         <v>1125</v>
       </c>
       <c r="M29" s="38">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="N29" s="38">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="O29" s="38">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="P29" s="38">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="Q29" s="38">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="R29" s="38">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="S29" s="38">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="T29" s="38">
-        <v>1670</v>
+        <v>1655</v>
       </c>
       <c r="U29" s="38">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="V29" s="38">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="W29" s="38">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="X29" s="38">
         <v>1225</v>
@@ -5048,46 +4992,46 @@
         <v>1305</v>
       </c>
       <c r="Z29" s="38">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="AA29" s="38">
         <v>910</v>
       </c>
       <c r="AB29" s="38">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="AC29" s="38">
         <v>900</v>
       </c>
       <c r="AD29" s="38">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="AE29" s="38">
         <v>915</v>
       </c>
       <c r="AF29" s="38">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="AG29" s="38">
         <v>835</v>
       </c>
       <c r="AH29" s="38">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="AI29" s="38">
         <v>905</v>
       </c>
       <c r="AJ29" s="38">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="AK29" s="38">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="AL29" s="38">
         <v>925</v>
       </c>
       <c r="AM29" s="38">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="AN29" s="38">
         <v>860</v>
@@ -5096,7 +5040,7 @@
         <v>945</v>
       </c>
       <c r="AP29" s="38">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="AQ29" s="38">
         <v>975</v>
@@ -5105,25 +5049,41 @@
         <v>1045</v>
       </c>
       <c r="AS29" s="38">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="AT29" s="38">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="AU29" s="38">
-        <v>1075</v>
+        <v>1030</v>
       </c>
       <c r="AV29" s="38">
-        <v>1155</v>
-      </c>
-      <c r="AW29" s="38"/>
-      <c r="AX29" s="38"/>
-      <c r="AY29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="38"/>
-      <c r="BB29" s="38"/>
-      <c r="BC29" s="38"/>
-      <c r="BD29" s="38"/>
+        <v>1120</v>
+      </c>
+      <c r="AW29" s="38">
+        <v>1120</v>
+      </c>
+      <c r="AX29" s="38">
+        <v>1060</v>
+      </c>
+      <c r="AY29" s="38">
+        <v>1140</v>
+      </c>
+      <c r="AZ29" s="38">
+        <v>1185</v>
+      </c>
+      <c r="BA29" s="38">
+        <v>1165</v>
+      </c>
+      <c r="BB29" s="38">
+        <v>1190</v>
+      </c>
+      <c r="BC29" s="38">
+        <v>1250</v>
+      </c>
+      <c r="BD29" s="38">
+        <v>1290</v>
+      </c>
     </row>
     <row r="30" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
@@ -5133,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="19">
         <v>277</v>
@@ -5301,7 +5261,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="19">
         <v>290</v>
@@ -5469,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="19">
         <v>274</v>
@@ -5637,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="19">
         <v>297</v>
@@ -5805,7 +5765,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="19">
         <v>292</v>
@@ -5975,7 +5935,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="19">
         <v>332</v>
@@ -6143,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="19">
         <v>275</v>
@@ -6311,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="19">
         <v>306</v>
@@ -6471,173 +6431,173 @@
       </c>
       <c r="BD37" s="20"/>
     </row>
-    <row r="38" spans="1:56" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
+    <row r="38" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
         <v>2018</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="35">
+      <c r="B38" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="19">
+        <v>314</v>
+      </c>
+      <c r="E38" s="19">
+        <v>318</v>
+      </c>
+      <c r="F38" s="19">
+        <v>334</v>
+      </c>
+      <c r="G38" s="19">
+        <v>321</v>
+      </c>
+      <c r="H38" s="19">
+        <v>277</v>
+      </c>
+      <c r="I38" s="19">
+        <v>283</v>
+      </c>
+      <c r="J38" s="19">
         <v>310</v>
       </c>
-      <c r="E38" s="35">
-        <v>310</v>
-      </c>
-      <c r="F38" s="35">
-        <v>330</v>
-      </c>
-      <c r="G38" s="35">
-        <v>315</v>
-      </c>
-      <c r="H38" s="35">
-        <v>270</v>
-      </c>
-      <c r="I38" s="35">
-        <v>285</v>
-      </c>
-      <c r="J38" s="35">
-        <v>310</v>
-      </c>
-      <c r="K38" s="35">
+      <c r="K38" s="19">
+        <v>297</v>
+      </c>
+      <c r="L38" s="19">
+        <v>274</v>
+      </c>
+      <c r="M38" s="19">
+        <v>273</v>
+      </c>
+      <c r="N38" s="19">
+        <v>273</v>
+      </c>
+      <c r="O38" s="19">
+        <v>251</v>
+      </c>
+      <c r="P38" s="19">
+        <v>273</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>280</v>
+      </c>
+      <c r="R38" s="19">
+        <v>284</v>
+      </c>
+      <c r="S38" s="19">
+        <v>252</v>
+      </c>
+      <c r="T38" s="19">
+        <v>271</v>
+      </c>
+      <c r="U38" s="19">
+        <v>265</v>
+      </c>
+      <c r="V38" s="19">
+        <v>262</v>
+      </c>
+      <c r="W38" s="19">
+        <v>249</v>
+      </c>
+      <c r="X38" s="19">
+        <v>268</v>
+      </c>
+      <c r="Y38" s="19">
+        <v>268</v>
+      </c>
+      <c r="Z38" s="19">
+        <v>262</v>
+      </c>
+      <c r="AA38" s="19">
+        <v>281</v>
+      </c>
+      <c r="AB38" s="19">
+        <v>233</v>
+      </c>
+      <c r="AC38" s="19">
+        <v>237</v>
+      </c>
+      <c r="AD38" s="19">
+        <v>307</v>
+      </c>
+      <c r="AE38" s="19">
+        <v>254</v>
+      </c>
+      <c r="AF38" s="19">
+        <v>255</v>
+      </c>
+      <c r="AG38" s="19">
+        <v>237</v>
+      </c>
+      <c r="AH38" s="19">
+        <v>262</v>
+      </c>
+      <c r="AI38" s="19">
+        <v>252</v>
+      </c>
+      <c r="AJ38" s="19">
+        <v>246</v>
+      </c>
+      <c r="AK38" s="19">
+        <v>258</v>
+      </c>
+      <c r="AL38" s="19">
+        <v>230</v>
+      </c>
+      <c r="AM38" s="19">
+        <v>268</v>
+      </c>
+      <c r="AN38" s="19">
+        <v>246</v>
+      </c>
+      <c r="AO38" s="19">
+        <v>268</v>
+      </c>
+      <c r="AP38" s="19">
+        <v>258</v>
+      </c>
+      <c r="AQ38" s="19">
+        <v>279</v>
+      </c>
+      <c r="AR38" s="19">
+        <v>258</v>
+      </c>
+      <c r="AS38" s="19">
+        <v>268</v>
+      </c>
+      <c r="AT38" s="19">
+        <v>267</v>
+      </c>
+      <c r="AU38" s="19">
+        <v>245</v>
+      </c>
+      <c r="AV38" s="19">
+        <v>247</v>
+      </c>
+      <c r="AW38" s="19">
+        <v>269</v>
+      </c>
+      <c r="AX38" s="19">
+        <v>265</v>
+      </c>
+      <c r="AY38" s="19">
+        <v>233</v>
+      </c>
+      <c r="AZ38" s="19">
         <v>295</v>
       </c>
-      <c r="L38" s="35">
-        <v>270</v>
-      </c>
-      <c r="M38" s="35">
-        <v>275</v>
-      </c>
-      <c r="N38" s="35">
-        <v>270</v>
-      </c>
-      <c r="O38" s="35">
-        <v>245</v>
-      </c>
-      <c r="P38" s="35">
-        <v>270</v>
-      </c>
-      <c r="Q38" s="35">
-        <v>285</v>
-      </c>
-      <c r="R38" s="35">
-        <v>285</v>
-      </c>
-      <c r="S38" s="35">
-        <v>255</v>
-      </c>
-      <c r="T38" s="35">
-        <v>270</v>
-      </c>
-      <c r="U38" s="35">
-        <v>260</v>
-      </c>
-      <c r="V38" s="35">
-        <v>265</v>
-      </c>
-      <c r="W38" s="35">
-        <v>245</v>
-      </c>
-      <c r="X38" s="35">
-        <v>265</v>
-      </c>
-      <c r="Y38" s="35">
-        <v>265</v>
-      </c>
-      <c r="Z38" s="35">
-        <v>260</v>
-      </c>
-      <c r="AA38" s="35">
-        <v>280</v>
-      </c>
-      <c r="AB38" s="35">
-        <v>230</v>
-      </c>
-      <c r="AC38" s="35">
-        <v>225</v>
-      </c>
-      <c r="AD38" s="35">
-        <v>300</v>
-      </c>
-      <c r="AE38" s="35">
-        <v>255</v>
-      </c>
-      <c r="AF38" s="35">
-        <v>250</v>
-      </c>
-      <c r="AG38" s="35">
-        <v>235</v>
-      </c>
-      <c r="AH38" s="35">
-        <v>260</v>
-      </c>
-      <c r="AI38" s="35">
-        <v>250</v>
-      </c>
-      <c r="AJ38" s="35">
-        <v>245</v>
-      </c>
-      <c r="AK38" s="35">
-        <v>250</v>
-      </c>
-      <c r="AL38" s="35">
-        <v>230</v>
-      </c>
-      <c r="AM38" s="35">
-        <v>270</v>
-      </c>
-      <c r="AN38" s="35">
-        <v>245</v>
-      </c>
-      <c r="AO38" s="35">
-        <v>265</v>
-      </c>
-      <c r="AP38" s="35">
-        <v>255</v>
-      </c>
-      <c r="AQ38" s="35">
-        <v>275</v>
-      </c>
-      <c r="AR38" s="35">
-        <v>260</v>
-      </c>
-      <c r="AS38" s="35">
-        <v>265</v>
-      </c>
-      <c r="AT38" s="35">
-        <v>265</v>
-      </c>
-      <c r="AU38" s="35">
-        <v>245</v>
-      </c>
-      <c r="AV38" s="35">
-        <v>245</v>
-      </c>
-      <c r="AW38" s="35">
-        <v>265</v>
-      </c>
-      <c r="AX38" s="35">
-        <v>265</v>
-      </c>
-      <c r="AY38" s="35">
-        <v>230</v>
-      </c>
-      <c r="AZ38" s="35">
-        <v>295</v>
-      </c>
-      <c r="BA38" s="35">
-        <v>265</v>
-      </c>
-      <c r="BB38" s="35">
-        <v>260</v>
-      </c>
-      <c r="BC38" s="35">
-        <v>295</v>
-      </c>
-      <c r="BD38" s="36"/>
+      <c r="BA38" s="19">
+        <v>266</v>
+      </c>
+      <c r="BB38" s="19">
+        <v>261</v>
+      </c>
+      <c r="BC38" s="19">
+        <v>294</v>
+      </c>
+      <c r="BD38" s="20"/>
     </row>
     <row r="39" spans="1:56" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
@@ -6647,16 +6607,16 @@
         <v>4</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="35">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E39" s="35">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F39" s="35">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="G39" s="35">
         <v>290</v>
@@ -6665,19 +6625,19 @@
         <v>280</v>
       </c>
       <c r="I39" s="35">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J39" s="35">
         <v>280</v>
       </c>
       <c r="K39" s="35">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L39" s="35">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M39" s="35">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N39" s="35">
         <v>245</v>
@@ -6692,43 +6652,43 @@
         <v>250</v>
       </c>
       <c r="R39" s="35">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S39" s="35">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="T39" s="35">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="U39" s="35">
         <v>285</v>
       </c>
       <c r="V39" s="35">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="W39" s="35">
         <v>255</v>
       </c>
       <c r="X39" s="35">
+        <v>225</v>
+      </c>
+      <c r="Y39" s="35">
+        <v>210</v>
+      </c>
+      <c r="Z39" s="35">
+        <v>215</v>
+      </c>
+      <c r="AA39" s="35">
+        <v>250</v>
+      </c>
+      <c r="AB39" s="35">
         <v>230</v>
       </c>
-      <c r="Y39" s="35">
-        <v>215</v>
-      </c>
-      <c r="Z39" s="35">
-        <v>220</v>
-      </c>
-      <c r="AA39" s="35">
-        <v>255</v>
-      </c>
-      <c r="AB39" s="35">
-        <v>240</v>
-      </c>
       <c r="AC39" s="35">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AD39" s="35">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AE39" s="35">
         <v>255</v>
@@ -6743,22 +6703,22 @@
         <v>245</v>
       </c>
       <c r="AI39" s="35">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AJ39" s="35">
         <v>255</v>
       </c>
       <c r="AK39" s="35">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AL39" s="35">
         <v>240</v>
       </c>
       <c r="AM39" s="35">
+        <v>245</v>
+      </c>
+      <c r="AN39" s="35">
         <v>240</v>
-      </c>
-      <c r="AN39" s="35">
-        <v>245</v>
       </c>
       <c r="AO39" s="35">
         <v>245</v>
@@ -6785,22 +6745,22 @@
         <v>270</v>
       </c>
       <c r="AW39" s="35">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AX39" s="35">
         <v>275</v>
       </c>
       <c r="AY39" s="35">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AZ39" s="35">
         <v>280</v>
       </c>
       <c r="BA39" s="35">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BB39" s="35">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="BC39" s="35">
         <v>245</v>
@@ -6815,10 +6775,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="38">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E40" s="38">
         <v>300</v>
@@ -6827,58 +6787,58 @@
         <v>290</v>
       </c>
       <c r="G40" s="38">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H40" s="38">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I40" s="38">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J40" s="38">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K40" s="38">
         <v>235</v>
       </c>
       <c r="L40" s="38">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M40" s="38">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="N40" s="38">
         <v>260</v>
       </c>
       <c r="O40" s="38">
+        <v>260</v>
+      </c>
+      <c r="P40" s="38">
+        <v>305</v>
+      </c>
+      <c r="Q40" s="38">
+        <v>285</v>
+      </c>
+      <c r="R40" s="38">
         <v>265</v>
-      </c>
-      <c r="P40" s="38">
-        <v>300</v>
-      </c>
-      <c r="Q40" s="38">
-        <v>290</v>
-      </c>
-      <c r="R40" s="38">
-        <v>270</v>
       </c>
       <c r="S40" s="38">
         <v>280</v>
       </c>
       <c r="T40" s="38">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="U40" s="38">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="V40" s="38">
         <v>290</v>
       </c>
       <c r="W40" s="38">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="X40" s="38">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Y40" s="38">
         <v>320</v>
@@ -6887,40 +6847,40 @@
         <v>295</v>
       </c>
       <c r="AA40" s="38">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AB40" s="38">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AC40" s="38">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AD40" s="38">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AE40" s="38">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="AF40" s="38">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AG40" s="38">
         <v>245</v>
       </c>
       <c r="AH40" s="38">
+        <v>240</v>
+      </c>
+      <c r="AI40" s="38">
+        <v>250</v>
+      </c>
+      <c r="AJ40" s="38">
         <v>230</v>
       </c>
-      <c r="AI40" s="38">
-        <v>240</v>
-      </c>
-      <c r="AJ40" s="38">
-        <v>220</v>
-      </c>
       <c r="AK40" s="38">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AL40" s="38">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AM40" s="38">
         <v>265</v>
@@ -6929,37 +6889,53 @@
         <v>260</v>
       </c>
       <c r="AO40" s="38">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AP40" s="38">
+        <v>250</v>
+      </c>
+      <c r="AQ40" s="38">
+        <v>275</v>
+      </c>
+      <c r="AR40" s="38">
+        <v>280</v>
+      </c>
+      <c r="AS40" s="38">
+        <v>250</v>
+      </c>
+      <c r="AT40" s="38">
         <v>255</v>
       </c>
-      <c r="AQ40" s="38">
-        <v>270</v>
-      </c>
-      <c r="AR40" s="38">
-        <v>285</v>
-      </c>
-      <c r="AS40" s="38">
-        <v>255</v>
-      </c>
-      <c r="AT40" s="38">
+      <c r="AU40" s="38">
+        <v>300</v>
+      </c>
+      <c r="AV40" s="38">
+        <v>265</v>
+      </c>
+      <c r="AW40" s="38">
+        <v>305</v>
+      </c>
+      <c r="AX40" s="38">
+        <v>245</v>
+      </c>
+      <c r="AY40" s="38">
+        <v>250</v>
+      </c>
+      <c r="AZ40" s="38">
+        <v>250</v>
+      </c>
+      <c r="BA40" s="38">
+        <v>275</v>
+      </c>
+      <c r="BB40" s="38">
+        <v>275</v>
+      </c>
+      <c r="BC40" s="38">
+        <v>295</v>
+      </c>
+      <c r="BD40" s="38">
         <v>260</v>
       </c>
-      <c r="AU40" s="38">
-        <v>320</v>
-      </c>
-      <c r="AV40" s="38">
-        <v>285</v>
-      </c>
-      <c r="AW40" s="38"/>
-      <c r="AX40" s="38"/>
-      <c r="AY40" s="38"/>
-      <c r="AZ40" s="38"/>
-      <c r="BA40" s="38"/>
-      <c r="BB40" s="38"/>
-      <c r="BC40" s="38"/>
-      <c r="BD40" s="38"/>
     </row>
     <row r="41" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
@@ -6969,7 +6945,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="19">
         <v>79</v>
@@ -7137,7 +7113,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="19">
         <v>73</v>
@@ -7305,7 +7281,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="19">
         <v>73</v>
@@ -7473,7 +7449,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="19">
         <v>89</v>
@@ -7641,7 +7617,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="19">
         <v>70</v>
@@ -7811,7 +7787,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="19">
         <v>66</v>
@@ -7979,7 +7955,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="19">
         <v>62</v>
@@ -8147,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="19">
         <v>68</v>
@@ -8307,173 +8283,173 @@
       </c>
       <c r="BD48" s="20"/>
     </row>
-    <row r="49" spans="1:56" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22">
+    <row r="49" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17">
         <v>2018</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="35">
-        <v>70</v>
-      </c>
-      <c r="E49" s="35">
+      <c r="B49" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="19">
+        <v>71</v>
+      </c>
+      <c r="E49" s="19">
+        <v>58</v>
+      </c>
+      <c r="F49" s="19">
+        <v>61</v>
+      </c>
+      <c r="G49" s="19">
+        <v>52</v>
+      </c>
+      <c r="H49" s="19">
+        <v>82</v>
+      </c>
+      <c r="I49" s="19">
+        <v>56</v>
+      </c>
+      <c r="J49" s="19">
+        <v>61</v>
+      </c>
+      <c r="K49" s="19">
+        <v>59</v>
+      </c>
+      <c r="L49" s="19">
+        <v>64</v>
+      </c>
+      <c r="M49" s="19">
+        <v>58</v>
+      </c>
+      <c r="N49" s="19">
+        <v>61</v>
+      </c>
+      <c r="O49" s="19">
         <v>55</v>
       </c>
-      <c r="F49" s="35">
+      <c r="P49" s="19">
+        <v>44</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>53</v>
+      </c>
+      <c r="R49" s="19">
+        <v>59</v>
+      </c>
+      <c r="S49" s="19">
+        <v>64</v>
+      </c>
+      <c r="T49" s="19">
+        <v>61</v>
+      </c>
+      <c r="U49" s="19">
+        <v>45</v>
+      </c>
+      <c r="V49" s="19">
+        <v>62</v>
+      </c>
+      <c r="W49" s="19">
         <v>60</v>
       </c>
-      <c r="G49" s="35">
+      <c r="X49" s="19">
+        <v>69</v>
+      </c>
+      <c r="Y49" s="19">
+        <v>54</v>
+      </c>
+      <c r="Z49" s="19">
+        <v>55</v>
+      </c>
+      <c r="AA49" s="19">
+        <v>56</v>
+      </c>
+      <c r="AB49" s="19">
+        <v>58</v>
+      </c>
+      <c r="AC49" s="19">
+        <v>61</v>
+      </c>
+      <c r="AD49" s="19">
+        <v>77</v>
+      </c>
+      <c r="AE49" s="19">
+        <v>67</v>
+      </c>
+      <c r="AF49" s="19">
+        <v>66</v>
+      </c>
+      <c r="AG49" s="19">
+        <v>58</v>
+      </c>
+      <c r="AH49" s="19">
+        <v>67</v>
+      </c>
+      <c r="AI49" s="19">
+        <v>56</v>
+      </c>
+      <c r="AJ49" s="19">
+        <v>61</v>
+      </c>
+      <c r="AK49" s="19">
+        <v>54</v>
+      </c>
+      <c r="AL49" s="19">
+        <v>44</v>
+      </c>
+      <c r="AM49" s="19">
+        <v>52</v>
+      </c>
+      <c r="AN49" s="19">
+        <v>53</v>
+      </c>
+      <c r="AO49" s="19">
         <v>50</v>
       </c>
-      <c r="H49" s="35">
-        <v>80</v>
-      </c>
-      <c r="I49" s="35">
-        <v>55</v>
-      </c>
-      <c r="J49" s="35">
-        <v>55</v>
-      </c>
-      <c r="K49" s="35">
-        <v>55</v>
-      </c>
-      <c r="L49" s="35">
-        <v>60</v>
-      </c>
-      <c r="M49" s="35">
-        <v>55</v>
-      </c>
-      <c r="N49" s="35">
-        <v>60</v>
-      </c>
-      <c r="O49" s="35">
-        <v>50</v>
-      </c>
-      <c r="P49" s="35">
-        <v>40</v>
-      </c>
-      <c r="Q49" s="35">
-        <v>50</v>
-      </c>
-      <c r="R49" s="35">
-        <v>55</v>
-      </c>
-      <c r="S49" s="35">
-        <v>60</v>
-      </c>
-      <c r="T49" s="35">
-        <v>55</v>
-      </c>
-      <c r="U49" s="35">
-        <v>40</v>
-      </c>
-      <c r="V49" s="35">
-        <v>65</v>
-      </c>
-      <c r="W49" s="35">
-        <v>60</v>
-      </c>
-      <c r="X49" s="35">
-        <v>65</v>
-      </c>
-      <c r="Y49" s="35">
-        <v>55</v>
-      </c>
-      <c r="Z49" s="35">
-        <v>55</v>
-      </c>
-      <c r="AA49" s="35">
-        <v>60</v>
-      </c>
-      <c r="AB49" s="35">
-        <v>55</v>
-      </c>
-      <c r="AC49" s="35">
-        <v>60</v>
-      </c>
-      <c r="AD49" s="35">
-        <v>75</v>
-      </c>
-      <c r="AE49" s="35">
-        <v>65</v>
-      </c>
-      <c r="AF49" s="35">
-        <v>60</v>
-      </c>
-      <c r="AG49" s="35">
-        <v>60</v>
-      </c>
-      <c r="AH49" s="35">
-        <v>65</v>
-      </c>
-      <c r="AI49" s="35">
-        <v>55</v>
-      </c>
-      <c r="AJ49" s="35">
-        <v>55</v>
-      </c>
-      <c r="AK49" s="35">
-        <v>50</v>
-      </c>
-      <c r="AL49" s="35">
-        <v>45</v>
-      </c>
-      <c r="AM49" s="35">
-        <v>50</v>
-      </c>
-      <c r="AN49" s="35">
-        <v>50</v>
-      </c>
-      <c r="AO49" s="35">
-        <v>45</v>
-      </c>
-      <c r="AP49" s="35">
-        <v>55</v>
-      </c>
-      <c r="AQ49" s="35">
-        <v>50</v>
-      </c>
-      <c r="AR49" s="35">
-        <v>60</v>
-      </c>
-      <c r="AS49" s="35">
-        <v>40</v>
-      </c>
-      <c r="AT49" s="35">
-        <v>45</v>
-      </c>
-      <c r="AU49" s="35">
-        <v>55</v>
-      </c>
-      <c r="AV49" s="35">
-        <v>35</v>
-      </c>
-      <c r="AW49" s="35">
-        <v>50</v>
-      </c>
-      <c r="AX49" s="35">
-        <v>55</v>
-      </c>
-      <c r="AY49" s="35">
-        <v>50</v>
-      </c>
-      <c r="AZ49" s="35">
-        <v>60</v>
-      </c>
-      <c r="BA49" s="35">
-        <v>55</v>
-      </c>
-      <c r="BB49" s="35">
-        <v>55</v>
-      </c>
-      <c r="BC49" s="35">
-        <v>60</v>
-      </c>
-      <c r="BD49" s="36"/>
+      <c r="AP49" s="19">
+        <v>58</v>
+      </c>
+      <c r="AQ49" s="19">
+        <v>49</v>
+      </c>
+      <c r="AR49" s="19">
+        <v>59</v>
+      </c>
+      <c r="AS49" s="19">
+        <v>41</v>
+      </c>
+      <c r="AT49" s="19">
+        <v>53</v>
+      </c>
+      <c r="AU49" s="19">
+        <v>61</v>
+      </c>
+      <c r="AV49" s="19">
+        <v>38</v>
+      </c>
+      <c r="AW49" s="19">
+        <v>51</v>
+      </c>
+      <c r="AX49" s="19">
+        <v>59</v>
+      </c>
+      <c r="AY49" s="19">
+        <v>58</v>
+      </c>
+      <c r="AZ49" s="19">
+        <v>59</v>
+      </c>
+      <c r="BA49" s="19">
+        <v>56</v>
+      </c>
+      <c r="BB49" s="19">
+        <v>56</v>
+      </c>
+      <c r="BC49" s="19">
+        <v>62</v>
+      </c>
+      <c r="BD49" s="20"/>
     </row>
     <row r="50" spans="1:56" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
@@ -8483,7 +8459,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="35">
         <v>55</v>
@@ -8498,16 +8474,16 @@
         <v>70</v>
       </c>
       <c r="H50" s="35">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I50" s="35">
+        <v>60</v>
+      </c>
+      <c r="J50" s="35">
+        <v>70</v>
+      </c>
+      <c r="K50" s="35">
         <v>55</v>
-      </c>
-      <c r="J50" s="35">
-        <v>60</v>
-      </c>
-      <c r="K50" s="35">
-        <v>50</v>
       </c>
       <c r="L50" s="35">
         <v>55</v>
@@ -8519,46 +8495,46 @@
         <v>65</v>
       </c>
       <c r="O50" s="35">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P50" s="35">
+        <v>45</v>
+      </c>
+      <c r="Q50" s="35">
+        <v>45</v>
+      </c>
+      <c r="R50" s="35">
         <v>50</v>
       </c>
-      <c r="Q50" s="35">
-        <v>50</v>
-      </c>
-      <c r="R50" s="35">
-        <v>55</v>
-      </c>
       <c r="S50" s="35">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="T50" s="35">
         <v>50</v>
       </c>
       <c r="U50" s="35">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V50" s="35">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W50" s="35">
         <v>45</v>
       </c>
       <c r="X50" s="35">
+        <v>55</v>
+      </c>
+      <c r="Y50" s="35">
         <v>60</v>
       </c>
-      <c r="Y50" s="35">
-        <v>65</v>
-      </c>
       <c r="Z50" s="35">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA50" s="35">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB50" s="35">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC50" s="35">
         <v>55</v>
@@ -8570,61 +8546,61 @@
         <v>65</v>
       </c>
       <c r="AF50" s="35">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG50" s="35">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AH50" s="35">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI50" s="35">
         <v>60</v>
       </c>
       <c r="AJ50" s="35">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AK50" s="35">
         <v>45</v>
       </c>
       <c r="AL50" s="35">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AM50" s="35">
+        <v>60</v>
+      </c>
+      <c r="AN50" s="35">
+        <v>55</v>
+      </c>
+      <c r="AO50" s="35">
         <v>50</v>
       </c>
-      <c r="AN50" s="35">
+      <c r="AP50" s="35">
         <v>60</v>
       </c>
-      <c r="AO50" s="35">
-        <v>40</v>
-      </c>
-      <c r="AP50" s="35">
-        <v>55</v>
-      </c>
       <c r="AQ50" s="35">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR50" s="35">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS50" s="35">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AT50" s="35">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AU50" s="35">
         <v>50</v>
       </c>
       <c r="AV50" s="35">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW50" s="35">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AX50" s="35">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AY50" s="35">
         <v>60</v>
@@ -8633,13 +8609,13 @@
         <v>55</v>
       </c>
       <c r="BA50" s="35">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB50" s="35">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BC50" s="35">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BD50" s="36"/>
     </row>
@@ -8651,7 +8627,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="38">
         <v>65</v>
@@ -8660,142 +8636,158 @@
         <v>55</v>
       </c>
       <c r="F51" s="38">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G51" s="38">
         <v>65</v>
       </c>
       <c r="H51" s="38">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I51" s="38">
+        <v>55</v>
+      </c>
+      <c r="J51" s="38">
+        <v>70</v>
+      </c>
+      <c r="K51" s="38">
         <v>50</v>
       </c>
-      <c r="J51" s="38">
-        <v>75</v>
-      </c>
-      <c r="K51" s="38">
-        <v>45</v>
-      </c>
       <c r="L51" s="38">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M51" s="38">
         <v>55</v>
       </c>
       <c r="N51" s="38">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O51" s="38">
         <v>55</v>
       </c>
       <c r="P51" s="38">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="38">
         <v>55</v>
-      </c>
-      <c r="Q51" s="38">
-        <v>60</v>
       </c>
       <c r="R51" s="38">
         <v>60</v>
       </c>
       <c r="S51" s="38">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T51" s="38">
         <v>60</v>
       </c>
       <c r="U51" s="38">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V51" s="38">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="W51" s="38">
         <v>60</v>
       </c>
       <c r="X51" s="38">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y51" s="38">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z51" s="38">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA51" s="38">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AB51" s="38">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AC51" s="38">
         <v>60</v>
       </c>
       <c r="AD51" s="38">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE51" s="38">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AF51" s="38">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG51" s="38">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH51" s="38">
         <v>65</v>
       </c>
       <c r="AI51" s="38">
+        <v>70</v>
+      </c>
+      <c r="AJ51" s="38">
+        <v>75</v>
+      </c>
+      <c r="AK51" s="38">
         <v>60</v>
       </c>
-      <c r="AJ51" s="38">
-        <v>55</v>
-      </c>
-      <c r="AK51" s="38">
-        <v>55</v>
-      </c>
       <c r="AL51" s="38">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM51" s="38">
         <v>55</v>
       </c>
       <c r="AN51" s="38">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO51" s="38">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP51" s="38">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AQ51" s="38">
         <v>70</v>
       </c>
       <c r="AR51" s="38">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS51" s="38">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AT51" s="38">
         <v>55</v>
       </c>
       <c r="AU51" s="38">
+        <v>50</v>
+      </c>
+      <c r="AV51" s="38">
         <v>55</v>
       </c>
-      <c r="AV51" s="38">
-        <v>60</v>
-      </c>
-      <c r="AW51" s="38"/>
-      <c r="AX51" s="38"/>
-      <c r="AY51" s="38"/>
-      <c r="AZ51" s="38"/>
-      <c r="BA51" s="38"/>
-      <c r="BB51" s="38"/>
-      <c r="BC51" s="38"/>
-      <c r="BD51" s="38"/>
+      <c r="AW51" s="38">
+        <v>40</v>
+      </c>
+      <c r="AX51" s="38">
+        <v>70</v>
+      </c>
+      <c r="AY51" s="38">
+        <v>50</v>
+      </c>
+      <c r="AZ51" s="38">
+        <v>50</v>
+      </c>
+      <c r="BA51" s="38">
+        <v>45</v>
+      </c>
+      <c r="BB51" s="38">
+        <v>65</v>
+      </c>
+      <c r="BC51" s="38">
+        <v>55</v>
+      </c>
+      <c r="BD51" s="38">
+        <v>65</v>
+      </c>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
@@ -9099,24 +9091,25 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BE3"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="1"/>
+    <col min="1" max="12" width="11.5" style="1"/>
+    <col min="13" max="14" width="8.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="55"/>
+    <row r="1" spans="1:56" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -9134,15 +9127,14 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:57" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="44"/>
+        <v>27</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -9195,15 +9187,14 @@
       <c r="BB2" s="6"/>
       <c r="BC2" s="6"/>
       <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
     </row>
-    <row r="3" spans="1:57" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="45"/>
+        <v>28</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -9256,13 +9247,12 @@
       <c r="BB3" s="6"/>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="88" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="66" min="1" max="14" man="1"/>
+    <brk id="66" max="13" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9270,7 +9260,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9285,7 +9275,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -9373,7 +9363,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -9389,23 +9379,23 @@
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+    <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
@@ -9495,7 +9485,7 @@
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -9548,7 +9538,7 @@
     <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30"/>
       <c r="B16" s="52" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -9563,10 +9553,10 @@
       <c r="M16" s="52"/>
       <c r="N16" s="52"/>
     </row>
-    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
       <c r="B17" s="52" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
@@ -9581,44 +9571,44 @@
       <c r="M17" s="52"/>
       <c r="N17" s="52"/>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
-      <c r="B18" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="B18" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
     </row>
-    <row r="19" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
-      <c r="B19" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -9634,9 +9624,7 @@
       <c r="N20" s="30"/>
     </row>
     <row r="21" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>32</v>
-      </c>
+      <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -9651,60 +9639,62 @@
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
     </row>
-    <row r="22" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
+      <c r="A23" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -9720,8 +9710,8 @@
       <c r="N25" s="30"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>8</v>
+      <c r="A26" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -9737,9 +9727,9 @@
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -9755,43 +9745,43 @@
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
+      <c r="A29" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>16</v>
+      <c r="A30" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -9808,9 +9798,7 @@
       <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -9841,33 +9829,17 @@
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B16:N16"/>
-    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A23:N23"/>
     <mergeCell ref="B17:N17"/>
     <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" display="https://statistique.quebec.ca/fr/document/nombre-hebdomadaire-de-deces-au-quebec/publication/nombre-hebdomadaire-de-deces-au-quebec-source-de-donnees-et-methodologie"/>
+    <hyperlink ref="A20" r:id="rId1" display="https://statistique.quebec.ca/fr/document/nombre-hebdomadaire-de-deces-au-quebec/publication/nombre-hebdomadaire-de-deces-au-quebec-source-de-donnees-et-methodologie"/>
     <hyperlink ref="A13" r:id="rId2" display="https://statistique.quebec.ca/fr/fichier/liste-des-semaines-cdc-selon-la-date-de-fin-2010-2020.pdf"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
